--- a/Mappe1 (version 1).xlsx
+++ b/Mappe1 (version 1).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\github\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD91F66C-CD2C-4989-B8C6-2A93473A52EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278FAEFD-F057-408E-BCB2-F63B38AFDC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95777FD4-0D0D-4010-9D18-A18CC6F68FA4}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="12948" windowHeight="12336" activeTab="1" xr2:uid="{95777FD4-0D0D-4010-9D18-A18CC6F68FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +37,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
   <si>
     <t>In</t>
   </si>
   <si>
     <t>Out</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>q and r</t>
+  </si>
+  <si>
+    <t>q -&gt; (q and r)</t>
+  </si>
+  <si>
+    <t>~q</t>
+  </si>
+  <si>
+    <t>q or ~q</t>
+  </si>
+  <si>
+    <t>(q v ~p) or (r v ~p)</t>
+  </si>
+  <si>
+    <t>(p -&gt; (q and r)) -&gt; ((q or ~p) and (r or ~p))</t>
+  </si>
+  <si>
+    <t>r or ~p</t>
   </si>
 </sst>
 </file>
@@ -78,8 +114,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159A61C1-7FA0-4B83-B4C5-A32A006916D3}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,4 +962,313 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2C5FEF-364C-41AC-A079-99EBE31899A2}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>